--- a/DATA_goal/Junction_Flooding_431.xlsx
+++ b/DATA_goal/Junction_Flooding_431.xlsx
@@ -472,7 +472,7 @@
     <col width="6" customWidth="1" min="28" max="28"/>
     <col width="6" customWidth="1" min="29" max="29"/>
     <col width="6" customWidth="1" min="30" max="30"/>
-    <col width="5" customWidth="1" min="31" max="31"/>
+    <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
     <col width="6" customWidth="1" min="34" max="34"/>
@@ -863,103 +863,103 @@
         <v>44782.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.78</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.67</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.02</v>
+        <v>0.24</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>0.15</v>
+        <v>1.52</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>0.14</v>
+        <v>1.36</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="H4" s="4" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="I4" s="4" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="J4" s="4" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="K4" s="4" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="L4" s="4" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="M4" s="4" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="N4" s="4" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="O4" s="4" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="P4" s="4" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="Q4" s="4" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="R4" s="4" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="S4" s="4" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="T4" s="4" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="U4" s="4" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V4" s="4" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="W4" s="4" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X4" s="4" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="Y4" s="4" t="n">
         <v>0.1</v>
       </c>
-      <c r="I4" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="J4" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="K4" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="L4" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="M4" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="N4" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="O4" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="P4" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="Q4" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="R4" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="S4" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="T4" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="U4" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="V4" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="W4" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="X4" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="Y4" s="4" t="n">
+      <c r="Z4" s="4" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AA4" s="4" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="AB4" s="4" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="AC4" s="4" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="AD4" s="4" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="AE4" s="4" t="n">
         <v>0.01</v>
       </c>
-      <c r="Z4" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="AA4" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="AB4" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="AC4" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AD4" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AE4" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="AF4" s="4" t="n">
-        <v>0.12</v>
+        <v>1.23</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.04</v>
+        <v>0.43</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44782.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.32</v>
+        <v>3.22</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.25</v>
+        <v>2.5</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.29</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>6.88</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>0.58</v>
+        <v>5.81</v>
       </c>
       <c r="G5" s="4" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <v>6.62</v>
+      </c>
+      <c r="I5" s="4" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="J5" s="4" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="R5" s="4" t="n">
         <v>0.24</v>
       </c>
-      <c r="H5" s="4" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="I5" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="J5" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="K5" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="L5" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="M5" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="N5" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="O5" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="P5" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="Q5" s="4" t="n">
+      <c r="S5" s="4" t="n">
         <v>0.23</v>
       </c>
-      <c r="R5" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="S5" s="4" t="n">
-        <v>0.02</v>
-      </c>
       <c r="T5" s="4" t="n">
-        <v>3.29</v>
+        <v>32.88</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>6.93</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.25</v>
+        <v>2.53</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>0.49</v>
+        <v>4.89</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.29</v>
+        <v>2.94</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.35</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>0.39</v>
+        <v>3.87</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.2</v>
+        <v>2.03</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.19</v>
+        <v>1.87</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.22</v>
+        <v>2.23</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.3</v>
+        <v>2.97</v>
       </c>
       <c r="AE5" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>0.6</v>
+        <v>5.99</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.14</v>
+        <v>1.42</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.29</v>
+        <v>2.88</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_431.xlsx
+++ b/DATA_goal/Junction_Flooding_431.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="6" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="6" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44782.50694444445</v>
+        <v>45112.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0</v>
+        <v>15.854</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0</v>
+        <v>10.494</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0</v>
+        <v>3.735</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0</v>
+        <v>33.762</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>0</v>
+        <v>26.097</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0</v>
+        <v>12.381</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0</v>
+        <v>37.784</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0</v>
+        <v>19.197</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0</v>
+        <v>7.826</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0</v>
+        <v>11.635</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0</v>
+        <v>13.329</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0</v>
+        <v>13.955</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0</v>
+        <v>3.981</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0</v>
+        <v>12.407</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0</v>
+        <v>17.155</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0</v>
+        <v>10.858</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0</v>
+        <v>3.133</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0</v>
+        <v>2.01</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>0</v>
+        <v>181.475</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>0</v>
+        <v>34.412</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0</v>
+        <v>11.452</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>0</v>
+        <v>22.298</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0</v>
+        <v>11.285</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0</v>
+        <v>3.17</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>0</v>
+        <v>19.349</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0</v>
+        <v>10.115</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0</v>
+        <v>9.106</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0</v>
+        <v>10.918</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0</v>
+        <v>14.036</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0</v>
+        <v>3.313</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>0</v>
+        <v>33.905</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0</v>
+        <v>6.108</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0</v>
+        <v>14.317</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44782.51388888889</v>
+        <v>45112.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0</v>
+        <v>24.502</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0</v>
+        <v>17.722</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0</v>
+        <v>2.048</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>0</v>
+        <v>53.16</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>0</v>
+        <v>42.913</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0</v>
+        <v>19.199</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>0</v>
+        <v>72.223</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0</v>
+        <v>29.668</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0</v>
+        <v>12.982</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0</v>
+        <v>19.152</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0</v>
+        <v>21.269</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0</v>
+        <v>22.43</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0</v>
+        <v>6.159</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0</v>
+        <v>19.174</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>0</v>
+        <v>27.138</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0</v>
+        <v>16.356</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0</v>
+        <v>1.546</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0</v>
+        <v>1.308</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>0</v>
+        <v>284.54</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>0</v>
+        <v>53.603</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0</v>
+        <v>17.698</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>0</v>
+        <v>35.747</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0</v>
+        <v>18.644</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0</v>
+        <v>3.222</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>0</v>
+        <v>35.614</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0</v>
+        <v>15.633</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0</v>
+        <v>13.933</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0</v>
+        <v>16.445</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0</v>
+        <v>22.359</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0</v>
+        <v>1.246</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>0</v>
+        <v>65.96299999999999</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0</v>
+        <v>9.836</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0</v>
+        <v>22.127</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44782.52083333334</v>
+        <v>45112.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.78</v>
+        <v>12.971</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.67</v>
+        <v>9.292999999999999</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.24</v>
+        <v>1.193</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>1.52</v>
+        <v>28.16</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>1.36</v>
+        <v>22.544</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.5</v>
+        <v>10.134</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>1.05</v>
+        <v>42.691</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0.93</v>
+        <v>15.707</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.55</v>
+        <v>6.845</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.75</v>
+        <v>9.994999999999999</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.82</v>
+        <v>11.279</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.75</v>
+        <v>11.899</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.32</v>
+        <v>3.263</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.66</v>
+        <v>10.151</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>1.01</v>
+        <v>14.344</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.76</v>
+        <v>8.765000000000001</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.36</v>
+        <v>0.983</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.23</v>
+        <v>0.727</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>4.36</v>
+        <v>147.2</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>1.62</v>
+        <v>28.494</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>1.29</v>
+        <v>18.907</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.19</v>
+        <v>9.843</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.1</v>
+        <v>1.792</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>1.11</v>
+        <v>20.252</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.49</v>
+        <v>8.276</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.52</v>
+        <v>7.431</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.66</v>
+        <v>8.756</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.73</v>
+        <v>11.847</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.01</v>
+        <v>0.766</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>1.23</v>
+        <v>39.09</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.43</v>
+        <v>5.158</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.65</v>
+        <v>11.715</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44782.52777777778</v>
+        <v>45112.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>3.22</v>
+        <v>8.65</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>2.5</v>
+        <v>6.16</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.29</v>
+        <v>0.84</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>6.88</v>
+        <v>18.78</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>5.81</v>
+        <v>14.95</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>2.43</v>
+        <v>6.74</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>6.62</v>
+        <v>28.63</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>3.9</v>
+        <v>10.47</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>1.85</v>
+        <v>4.55</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>2.72</v>
+        <v>6.6</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>2.96</v>
+        <v>7.53</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>3.03</v>
+        <v>7.95</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.92</v>
+        <v>2.18</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>2.58</v>
+        <v>6.77</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>3.71</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>2.26</v>
+        <v>5.89</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.24</v>
+        <v>0.72</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.23</v>
+        <v>0.49</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>32.88</v>
+        <v>95.69</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>6.93</v>
+        <v>19</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>2.53</v>
+        <v>6.25</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>4.89</v>
+        <v>12.57</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>2.94</v>
+        <v>6.55</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.35</v>
+        <v>1.23</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>3.87</v>
+        <v>13.51</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>2.03</v>
+        <v>5.52</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>1.87</v>
+        <v>4.98</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>2.23</v>
+        <v>5.86</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>2.97</v>
+        <v>7.9</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0</v>
+        <v>0.55</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>5.99</v>
+        <v>26.19</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>1.42</v>
+        <v>3.42</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>2.88</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44782.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>5.16</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>11.14</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>9.33</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>3.97</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>13.57</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>6.26</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>4.29</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>4.65</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>4.84</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>5.91</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>3.47</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>55.76</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>11.32</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>3.91</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>7.87</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>4.38</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>7.29</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>3.27</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>3.49</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>12.49</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>2.21</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>4.65</v>
+        <v>7.81</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_431.xlsx
+++ b/DATA_goal/Junction_Flooding_431.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="8" customWidth="1" min="2" max="2"/>
-    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
-    <col width="8" customWidth="1" min="5" max="5"/>
-    <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="8" customWidth="1" min="7" max="7"/>
-    <col width="8" customWidth="1" min="8" max="8"/>
-    <col width="8" customWidth="1" min="9" max="9"/>
-    <col width="8" customWidth="1" min="10" max="10"/>
-    <col width="8" customWidth="1" min="11" max="11"/>
-    <col width="8" customWidth="1" min="12" max="12"/>
-    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="5" max="5"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="8" max="8"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="8" customWidth="1" min="15" max="15"/>
-    <col width="8" customWidth="1" min="16" max="16"/>
-    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
-    <col width="9" customWidth="1" min="20" max="20"/>
-    <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="8" customWidth="1" min="22" max="22"/>
-    <col width="8" customWidth="1" min="23" max="23"/>
-    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="7" customWidth="1" min="21" max="21"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
-    <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="8" customWidth="1" min="27" max="27"/>
-    <col width="8" customWidth="1" min="28" max="28"/>
-    <col width="8" customWidth="1" min="29" max="29"/>
-    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
-    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="8" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,418 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45112.50694444445</v>
+        <v>44782.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>15.854</v>
+        <v>0</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>10.494</v>
+        <v>0</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>3.735</v>
+        <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>33.762</v>
+        <v>0</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>26.097</v>
+        <v>0</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>12.381</v>
+        <v>0</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>37.784</v>
+        <v>0</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>19.197</v>
+        <v>0</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>7.826</v>
+        <v>0</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>11.635</v>
+        <v>0</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>13.329</v>
+        <v>0</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>13.955</v>
+        <v>0</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>3.981</v>
+        <v>0</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>12.407</v>
+        <v>0</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>17.155</v>
+        <v>0</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>10.858</v>
+        <v>0</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.133</v>
+        <v>0</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.01</v>
+        <v>0</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>181.475</v>
+        <v>0</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>34.412</v>
+        <v>0</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>11.452</v>
+        <v>0</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>22.298</v>
+        <v>0</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>11.285</v>
+        <v>0</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>3.17</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>19.349</v>
+        <v>0</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>10.115</v>
+        <v>0</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>9.106</v>
+        <v>0</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>10.918</v>
+        <v>0</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>14.036</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.313</v>
+        <v>0</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>33.905</v>
+        <v>0</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>6.108</v>
+        <v>0</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>14.317</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45112.51388888889</v>
+        <v>44782.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>24.502</v>
+        <v>0</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>17.722</v>
+        <v>0</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>2.048</v>
+        <v>0</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>53.16</v>
+        <v>0</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>42.913</v>
+        <v>0</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>19.199</v>
+        <v>0</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>72.223</v>
+        <v>0</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>29.668</v>
+        <v>0</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>12.982</v>
+        <v>0</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>19.152</v>
+        <v>0</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>21.269</v>
+        <v>0</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>22.43</v>
+        <v>0</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>6.159</v>
+        <v>0</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>19.174</v>
+        <v>0</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>27.138</v>
+        <v>0</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>16.356</v>
+        <v>0</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.546</v>
+        <v>0</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>1.308</v>
+        <v>0</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>284.54</v>
+        <v>0</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>53.603</v>
+        <v>0</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>17.698</v>
+        <v>0</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>35.747</v>
+        <v>0</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>18.644</v>
+        <v>0</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>3.222</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>35.614</v>
+        <v>0</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>15.633</v>
+        <v>0</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>13.933</v>
+        <v>0</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>16.445</v>
+        <v>0</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>22.359</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.246</v>
+        <v>0</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>65.96299999999999</v>
+        <v>0</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>9.836</v>
+        <v>0</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>22.127</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45112.52083333334</v>
+        <v>44782.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>12.971</v>
+        <v>0.777</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>9.292999999999999</v>
+        <v>0.671</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.193</v>
+        <v>0.243</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>28.16</v>
+        <v>1.522</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>22.544</v>
+        <v>1.356</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>10.134</v>
+        <v>0.504</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>42.691</v>
+        <v>1.049</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>15.707</v>
+        <v>0.9330000000000001</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>6.845</v>
+        <v>0.551</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>9.994999999999999</v>
+        <v>0.746</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>11.279</v>
+        <v>0.824</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>11.899</v>
+        <v>0.748</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>3.263</v>
+        <v>0.324</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>10.151</v>
+        <v>0.663</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>14.344</v>
+        <v>1.008</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>8.765000000000001</v>
+        <v>0.761</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.983</v>
+        <v>0.359</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.727</v>
+        <v>0.23</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>147.2</v>
+        <v>4.364</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>28.494</v>
+        <v>1.616</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>9.369999999999999</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>18.907</v>
+        <v>1.292</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>9.843</v>
+        <v>1.186</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.792</v>
+        <v>0.1</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>20.252</v>
+        <v>1.113</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>8.276</v>
+        <v>0.49</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>7.431</v>
+        <v>0.524</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>8.756</v>
+        <v>0.655</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>11.847</v>
+        <v>0.733</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.766</v>
+        <v>0.008</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>39.09</v>
+        <v>1.231</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>5.158</v>
+        <v>0.425</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>11.715</v>
+        <v>0.654</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45112.52777777778</v>
+        <v>44782.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>8.65</v>
+        <v>3.215</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>6.16</v>
+        <v>2.498</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.84</v>
+        <v>0.289</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>18.78</v>
+        <v>6.88</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>14.95</v>
+        <v>5.811</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>6.74</v>
+        <v>2.429</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>28.63</v>
+        <v>6.623</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>10.47</v>
+        <v>3.9</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>4.55</v>
+        <v>1.853</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>6.6</v>
+        <v>2.718</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>7.53</v>
+        <v>2.958</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>7.95</v>
+        <v>3.032</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>2.18</v>
+        <v>0.925</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>6.77</v>
+        <v>2.58</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>9.550000000000001</v>
+        <v>3.714</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>5.89</v>
+        <v>2.256</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.72</v>
+        <v>0.238</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.49</v>
+        <v>0.231</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>95.69</v>
+        <v>32.882</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>19</v>
+        <v>6.93</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>6.25</v>
+        <v>2.534</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>12.57</v>
+        <v>4.888</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>6.55</v>
+        <v>2.938</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.23</v>
+        <v>0.346</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>13.51</v>
+        <v>3.868</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>5.52</v>
+        <v>2.033</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>4.98</v>
+        <v>1.873</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>5.86</v>
+        <v>2.23</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>7.9</v>
+        <v>2.971</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.55</v>
+        <v>0</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>26.19</v>
+        <v>5.992</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>3.42</v>
+        <v>1.419</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>7.81</v>
+        <v>2.879</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44782.53471064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>11.14</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>9.33</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>13.57</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>6.26</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>4.84</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>55.76</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>11.32</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>7.87</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>7.29</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>12.49</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>4.65</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_431.xlsx
+++ b/DATA_goal/Junction_Flooding_431.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44782.50694444445</v>
+        <v>45112.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0</v>
+        <v>15.854</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0</v>
+        <v>10.494</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0</v>
+        <v>3.735</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0</v>
+        <v>33.762</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>0</v>
+        <v>26.097</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0</v>
+        <v>12.381</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0</v>
+        <v>37.784</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0</v>
+        <v>19.197</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0</v>
+        <v>7.826</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0</v>
+        <v>11.635</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0</v>
+        <v>13.329</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0</v>
+        <v>13.955</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0</v>
+        <v>3.981</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0</v>
+        <v>12.407</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0</v>
+        <v>17.155</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0</v>
+        <v>10.858</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0</v>
+        <v>3.133</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0</v>
+        <v>2.01</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>0</v>
+        <v>181.475</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>0</v>
+        <v>34.412</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0</v>
+        <v>11.452</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>0</v>
+        <v>22.298</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0</v>
+        <v>11.285</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0</v>
+        <v>3.17</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>0</v>
+        <v>19.349</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0</v>
+        <v>10.115</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0</v>
+        <v>9.106</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0</v>
+        <v>10.918</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0</v>
+        <v>14.036</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0</v>
+        <v>3.313</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>0</v>
+        <v>33.905</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0</v>
+        <v>6.108</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0</v>
+        <v>14.317</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44782.51388888889</v>
+        <v>45112.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0</v>
+        <v>24.502</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0</v>
+        <v>17.722</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0</v>
+        <v>2.048</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>0</v>
+        <v>53.16</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>0</v>
+        <v>42.913</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0</v>
+        <v>19.199</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>0</v>
+        <v>72.223</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0</v>
+        <v>29.668</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0</v>
+        <v>12.982</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0</v>
+        <v>19.152</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0</v>
+        <v>21.269</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0</v>
+        <v>22.43</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0</v>
+        <v>6.159</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0</v>
+        <v>19.174</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>0</v>
+        <v>27.138</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0</v>
+        <v>16.356</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0</v>
+        <v>1.546</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0</v>
+        <v>1.308</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>0</v>
+        <v>284.54</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>0</v>
+        <v>53.603</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0</v>
+        <v>17.698</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>0</v>
+        <v>35.747</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0</v>
+        <v>18.644</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0</v>
+        <v>3.222</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>0</v>
+        <v>35.614</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0</v>
+        <v>15.633</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0</v>
+        <v>13.933</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0</v>
+        <v>16.445</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0</v>
+        <v>22.359</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0</v>
+        <v>1.246</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>0</v>
+        <v>65.96299999999999</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0</v>
+        <v>9.836</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0</v>
+        <v>22.127</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44782.52083333334</v>
+        <v>45112.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.777</v>
+        <v>12.971</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.671</v>
+        <v>9.292999999999999</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.243</v>
+        <v>1.193</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>1.522</v>
+        <v>28.16</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>1.356</v>
+        <v>22.544</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.504</v>
+        <v>10.134</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>1.049</v>
+        <v>42.691</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0.9330000000000001</v>
+        <v>15.707</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.551</v>
+        <v>6.845</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.746</v>
+        <v>9.994999999999999</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.824</v>
+        <v>11.279</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.748</v>
+        <v>11.899</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.324</v>
+        <v>3.263</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.663</v>
+        <v>10.151</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>1.008</v>
+        <v>14.344</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.761</v>
+        <v>8.765000000000001</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.359</v>
+        <v>0.983</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.23</v>
+        <v>0.727</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>4.364</v>
+        <v>147.2</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>1.616</v>
+        <v>28.494</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.8149999999999999</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>1.292</v>
+        <v>18.907</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.186</v>
+        <v>9.843</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.1</v>
+        <v>1.792</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>1.113</v>
+        <v>20.252</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.49</v>
+        <v>8.276</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.524</v>
+        <v>7.431</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.655</v>
+        <v>8.756</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.733</v>
+        <v>11.847</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.008</v>
+        <v>0.766</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>1.231</v>
+        <v>39.09</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.425</v>
+        <v>5.158</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.654</v>
+        <v>11.715</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44782.52777777778</v>
+        <v>45112.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>3.215</v>
+        <v>8.65</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>2.498</v>
+        <v>6.16</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.289</v>
+        <v>0.84</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>6.88</v>
+        <v>18.78</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>5.811</v>
+        <v>14.95</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>2.429</v>
+        <v>6.74</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>6.623</v>
+        <v>28.63</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>3.9</v>
+        <v>10.47</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>1.853</v>
+        <v>4.55</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>2.718</v>
+        <v>6.6</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>2.958</v>
+        <v>7.53</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>3.032</v>
+        <v>7.95</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.925</v>
+        <v>2.18</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>2.58</v>
+        <v>6.77</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>3.714</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>2.256</v>
+        <v>5.89</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.238</v>
+        <v>0.72</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.231</v>
+        <v>0.49</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>32.882</v>
+        <v>95.69</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>6.93</v>
+        <v>19</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>2.534</v>
+        <v>6.25</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>4.888</v>
+        <v>12.57</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>2.938</v>
+        <v>6.55</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.346</v>
+        <v>1.23</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>3.868</v>
+        <v>13.51</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>2.033</v>
+        <v>5.52</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>1.873</v>
+        <v>4.98</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>2.23</v>
+        <v>5.86</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>2.971</v>
+        <v>7.9</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0</v>
+        <v>0.55</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>5.992</v>
+        <v>26.19</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>1.419</v>
+        <v>3.42</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>2.879</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44782.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>5.16</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>11.14</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>9.33</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>3.97</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>13.57</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>6.26</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>4.29</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>4.65</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>4.84</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>5.91</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>3.47</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>55.76</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>11.32</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>3.91</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>7.87</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>4.38</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>7.29</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>3.27</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>3.49</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>12.49</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>2.21</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>4.65</v>
+        <v>7.81</v>
       </c>
     </row>
   </sheetData>
